--- a/data/trans_dic/P44A$sangre-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Dificultad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.130355499070871</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6411370658721091</v>
+        <v>0.6411370658721093</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.08770754773112469</v>
@@ -664,7 +664,7 @@
         <v>0.09627352064399285</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6404314807877702</v>
+        <v>0.6404314807877701</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0</v>
+        <v>0.0408387604597067</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02100887525622901</v>
+        <v>0.02044163882508723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5104681774431765</v>
+        <v>0.5244009260427364</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03211679686565852</v>
+        <v>0.03511582735693461</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.564348808780892</v>
+        <v>0.5536283155037632</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03481342556801917</v>
+        <v>0.03469540912451892</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04152090706015638</v>
+        <v>0.04088188033768157</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5725743958529939</v>
+        <v>0.5728507053442687</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.306360695022921</v>
+        <v>0.3140049537551042</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1865452285868147</v>
+        <v>0.1845228167877574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7363778419234337</v>
+        <v>0.7407472069067416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1982629066605789</v>
+        <v>0.1832892742558085</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2988945066628722</v>
+        <v>0.3135932130508745</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.717581584971129</v>
+        <v>0.7105473138177125</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1871171951252414</v>
+        <v>0.1958223534469195</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1890996688791063</v>
+        <v>0.1810001112833728</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7020076473076292</v>
+        <v>0.696294492969895</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.1099649509742577</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.6993714272675207</v>
+        <v>0.6993714272675208</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06820214456261958</v>
+        <v>0.06967094945707164</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0238143817428831</v>
+        <v>0.02575180355336417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5987289781793018</v>
+        <v>0.602614783104647</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0284162782502724</v>
+        <v>0.02847950256761761</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03048242583266231</v>
+        <v>0.03000153439667657</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6736517355409579</v>
+        <v>0.6687883895475899</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06602758001262002</v>
+        <v>0.07827155691529743</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04426860941852399</v>
+        <v>0.05231391805701161</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6565934237187439</v>
+        <v>0.6549244305728671</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3792452332601142</v>
+        <v>0.3554175087880482</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2237965409348212</v>
+        <v>0.2216696044208299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7406463499888875</v>
+        <v>0.7374404107332898</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2305843700832222</v>
+        <v>0.2340372889845033</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2727303068360091</v>
+        <v>0.2826695926595477</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7866515050745806</v>
+        <v>0.7815847322962858</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2483412092031166</v>
+        <v>0.2727714146272037</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1857952199209451</v>
+        <v>0.2066988137693625</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7444313068479601</v>
+        <v>0.7423380530225376</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1395447655132685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6694212343644383</v>
+        <v>0.6694212343644381</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1366943880362507</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7606085812184609</v>
+        <v>0.7606085812184612</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1188310891444812</v>
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03198714099381222</v>
+        <v>0.0318408396910719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04861771870558355</v>
+        <v>0.05053959083138997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6085013151419503</v>
+        <v>0.6036688514704102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04149164018727614</v>
+        <v>0.04272874234981641</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.6982460017362001</v>
+        <v>0.706635060707439</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04223556066114011</v>
+        <v>0.0412545816824349</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02822820108288294</v>
+        <v>0.02730198313979999</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6594810593723833</v>
+        <v>0.6642080116090993</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2538411651655404</v>
+        <v>0.2581863732451514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2975511958728642</v>
+        <v>0.2960552183662479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.726800399161069</v>
+        <v>0.7330194605396138</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.339065749852879</v>
+        <v>0.3332665792176653</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.8105862135817311</v>
+        <v>0.8110634245037481</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2324386119050483</v>
+        <v>0.2254199833753086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1842001300753321</v>
+        <v>0.1666339699405874</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7509179590724617</v>
+        <v>0.751733685892735</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.1294413309972324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5951530571437676</v>
+        <v>0.5951530571437678</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.05117686668210918</v>
@@ -978,7 +978,7 @@
         <v>0.05658522170449898</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6855588028293532</v>
+        <v>0.685558802829353</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1931383303095164</v>
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1292704577355462</v>
+        <v>0.1166884999946037</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03176539488314413</v>
+        <v>0.04974754703102737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5270007191802699</v>
+        <v>0.522702378041673</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1013,16 +1013,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6188459646844354</v>
+        <v>0.6207291322762943</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09215026745105408</v>
+        <v>0.07819479193467432</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.037123788050729</v>
+        <v>0.04082301727768868</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.589031711608947</v>
+        <v>0.5841574624150389</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5690249709663491</v>
+        <v>0.562132619325649</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2913101370742315</v>
+        <v>0.3100963373824738</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6615087727652161</v>
+        <v>0.6627913517304189</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3080552569027284</v>
+        <v>0.2209895818571293</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2493113122420748</v>
+        <v>0.2458436266739695</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7377245305735299</v>
+        <v>0.7452712694514165</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3773134848215358</v>
+        <v>0.3562801067021607</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2281686582785187</v>
+        <v>0.232288796548818</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6780269240633863</v>
+        <v>0.6731617920270738</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.1080949145487707</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6424672625389529</v>
+        <v>0.6424672625389531</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.08556876449571599</v>
@@ -1087,7 +1087,7 @@
         <v>0.08229093583507152</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7105056871396149</v>
+        <v>0.7105056871396148</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1331319971424602</v>
@@ -1096,7 +1096,7 @@
         <v>0.09716217916417016</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6751485479775928</v>
+        <v>0.6751485479775929</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06842847783873002</v>
+        <v>0.06489112004535487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6077531807844456</v>
+        <v>0.6052748618011297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.680848341892489</v>
+        <v>0.6797007947574314</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06327226634243348</v>
+        <v>0.06422745508728303</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6513507000675088</v>
+        <v>0.6492919899752602</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1659948365034782</v>
+        <v>0.1756016551427836</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6769275789203162</v>
+        <v>0.6767760681214887</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.74166285555989</v>
+        <v>0.738368673340416</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1361534370279752</v>
+        <v>0.141279871219045</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7004539846243051</v>
+        <v>0.6970648817094599</v>
       </c>
     </row>
     <row r="19">
@@ -1395,31 +1395,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30738</v>
+        <v>31577</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1078</v>
+        <v>1178</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>50597</v>
+        <v>49636</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3194</v>
+        <v>3145</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>85812</v>
+        <v>85853</v>
       </c>
     </row>
     <row r="7">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7150</v>
+        <v>7329</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8093</v>
+        <v>8005</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44341</v>
+        <v>44604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6430</v>
+        <v>5944</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10029</v>
+        <v>10522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64335</v>
+        <v>63704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10435</v>
+        <v>10921</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14549</v>
+        <v>13926</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>105210</v>
+        <v>104354</v>
       </c>
     </row>
     <row r="8">
@@ -1539,31 +1539,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2227</v>
+        <v>2275</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>932</v>
+        <v>1008</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>87781</v>
+        <v>88351</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>101201</v>
+        <v>100470</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4246</v>
+        <v>5033</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3206</v>
+        <v>3789</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>194903</v>
+        <v>194408</v>
       </c>
     </row>
     <row r="11">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12382</v>
+        <v>11604</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8758</v>
+        <v>8675</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>108588</v>
+        <v>108118</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7298</v>
+        <v>7408</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9080</v>
+        <v>9411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>118176</v>
+        <v>117415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15968</v>
+        <v>17539</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13457</v>
+        <v>14971</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>220977</v>
+        <v>220356</v>
       </c>
     </row>
     <row r="12">
@@ -1683,29 +1683,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1868</v>
+        <v>1942</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>109015</v>
+        <v>108149</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>987</v>
+        <v>1016</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>98339</v>
+        <v>99520</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2232</v>
+        <v>2180</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1924</v>
+        <v>1861</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>211027</v>
+        <v>212540</v>
       </c>
     </row>
     <row r="15">
@@ -1716,29 +1716,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7378</v>
+        <v>7505</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11431</v>
+        <v>11374</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>130208</v>
+        <v>131323</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8064</v>
+        <v>7926</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>114161</v>
+        <v>114228</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12284</v>
+        <v>11913</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12554</v>
+        <v>11357</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>240286</v>
+        <v>240547</v>
       </c>
     </row>
     <row r="16">
@@ -1823,13 +1823,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3143</v>
+        <v>2837</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1176</v>
+        <v>1842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>95464</v>
+        <v>94685</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -1838,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>88797</v>
+        <v>89067</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3999</v>
+        <v>3393</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2100</v>
+        <v>2309</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>191220</v>
+        <v>189637</v>
       </c>
     </row>
     <row r="19">
@@ -1858,31 +1858,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13834</v>
+        <v>13667</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10785</v>
+        <v>11481</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>119830</v>
+        <v>120062</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5880</v>
+        <v>4218</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4873</v>
+        <v>4805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>105855</v>
+        <v>106937</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16375</v>
+        <v>15462</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12907</v>
+        <v>13140</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>220111</v>
+        <v>218531</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10809</v>
+        <v>10250</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>344673</v>
+        <v>343268</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>356905</v>
+        <v>356303</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17342</v>
+        <v>17604</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>710841</v>
+        <v>708594</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26221</v>
+        <v>27738</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>383904</v>
+        <v>383818</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>388784</v>
+        <v>387057</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>37318</v>
+        <v>38723</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>764429</v>
+        <v>760730</v>
       </c>
     </row>
     <row r="24">
